--- a/assets/uploads/nilai.xlsx
+++ b/assets/uploads/nilai.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\lulus_bareng\assets\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\kelulusan\assets\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF62A672-8D7E-46C3-AAF1-9A603E245A9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76AC826-6A66-4C44-9C44-E11AC22776FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ECAC7A25-3081-40F6-9E45-854DE67ADC4D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="18">
   <si>
     <t>201-210-015</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>201-210-016</t>
+  </si>
+  <si>
+    <t>201-210-017</t>
+  </si>
+  <si>
+    <t>201-210-018</t>
+  </si>
+  <si>
+    <t>201-210-019</t>
+  </si>
+  <si>
+    <t>201-210-020</t>
   </si>
 </sst>
 </file>
@@ -469,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFA89CA-546A-42AC-81DA-086B25BCCD82}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,9 +697,364 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>76</v>
+      </c>
+      <c r="D13" s="3">
+        <v>75</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>54</v>
+      </c>
+      <c r="E14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <v>54</v>
+      </c>
+      <c r="E15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>34</v>
+      </c>
+      <c r="E18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>76</v>
+      </c>
+      <c r="D19" s="3">
+        <v>75</v>
+      </c>
+      <c r="E19" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>54</v>
+      </c>
+      <c r="D20">
+        <v>54</v>
+      </c>
+      <c r="E20">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>76</v>
+      </c>
+      <c r="D21">
+        <v>75</v>
+      </c>
+      <c r="E21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>54</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>76</v>
+      </c>
+      <c r="D25" s="3">
+        <v>75</v>
+      </c>
+      <c r="E25" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <v>54</v>
+      </c>
+      <c r="E26">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>54</v>
+      </c>
+      <c r="D27">
+        <v>54</v>
+      </c>
+      <c r="E27">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>34</v>
+      </c>
+      <c r="E30">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>76</v>
+      </c>
+      <c r="D31" s="3">
+        <v>75</v>
+      </c>
+      <c r="E31" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>54</v>
+      </c>
+      <c r="D32">
+        <v>54</v>
+      </c>
+      <c r="E32">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>54</v>
+      </c>
+      <c r="D33">
+        <v>54</v>
+      </c>
+      <c r="E33">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>54</v>
+      </c>
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
